--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -43,21 +43,21 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -67,21 +67,21 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -94,22 +94,22 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -592,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9711538461538461</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -669,10 +669,10 @@
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.5733333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -860,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +916,13 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,13 +966,13 @@
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.03551912568306011</v>
+        <v>0.03916211293260474</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -992,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1044,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.45</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1070,13 +1070,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3191489361702128</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1096,13 +1096,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3142857142857143</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1122,13 +1122,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
